--- a/Python/Hockey pool/sheet data.xlsx
+++ b/Python/Hockey pool/sheet data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621C3601-DB96-495B-A0BE-BAFFF80EF127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A5BA90-6ED6-4C82-B5A6-D42D8862E18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24990" xr2:uid="{04214E6D-5F87-47FE-BA17-DDA482D6C624}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{04214E6D-5F87-47FE-BA17-DDA482D6C624}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="191">
   <si>
     <t>West Forward 1</t>
   </si>
@@ -595,16 +595,25 @@
   </si>
   <si>
     <t>PPG</t>
+  </si>
+  <si>
+    <t>SheetID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -658,13 +667,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{088B6A56-EEC0-4B41-B926-F04CE065B7D2}" name="Table1" displayName="Table1" ref="A1:K137" totalsRowShown="0">
-  <autoFilter ref="A1:K137" xr:uid="{088B6A56-EEC0-4B41-B926-F04CE065B7D2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K137">
-    <sortCondition ref="C2:C137"/>
-    <sortCondition descending="1" ref="I2:I137"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{088B6A56-EEC0-4B41-B926-F04CE065B7D2}" name="Table1" displayName="Table1" ref="A1:L137" totalsRowShown="0">
+  <autoFilter ref="A1:L137" xr:uid="{088B6A56-EEC0-4B41-B926-F04CE065B7D2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L137">
+    <sortCondition ref="D2:D137"/>
+    <sortCondition descending="1" ref="J2:J137"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="12">
+    <tableColumn id="22" xr3:uid="{4D849E00-94E3-4181-BDCA-7EF32EBFB98F}" name="SheetID"/>
     <tableColumn id="1" xr3:uid="{5DBF0F60-A436-4F35-BA27-EBE672CE72F6}" name="BoxTitle"/>
     <tableColumn id="2" xr3:uid="{9D6DA4C7-A0B4-4E22-9E0B-B85C333D6BA7}" name="Position"/>
     <tableColumn id="3" xr3:uid="{09B1BAA8-5887-4BD4-96FA-EAF70BF6A4FC}" name="BoxNum"/>
@@ -978,4667 +988,5089 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA53450-686A-4171-9178-D4B8CE81419E}">
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>186</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>187</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>188</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1.88</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>17</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>20</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>12</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>1.67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1.35</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>18</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>19</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1.55</v>
       </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
       <c r="I4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>7</v>
       </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>87</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
         <v>1.04</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="I5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>87</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
       <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C7" t="s">
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" s="1">
         <v>0.17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
+      <c r="C8" t="s">
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1.04</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>24</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>19</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>1.26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
+      <c r="C9" t="s">
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1.58</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>17</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>18</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>12</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
+      <c r="C10" t="s">
+        <v>87</v>
       </c>
       <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>1.28</v>
       </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
       <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
         <v>10</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>7</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>1.43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
+      <c r="C11" t="s">
+        <v>87</v>
       </c>
       <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.89</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>7</v>
       </c>
-      <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11" s="1">
         <v>1.17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
+      <c r="C12" t="s">
+        <v>87</v>
       </c>
       <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>0.9</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
       <c r="I12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
         <v>8</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>0.38</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
+      <c r="C13" t="s">
+        <v>87</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>0.98</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
+      <c r="C14" t="s">
+        <v>87</v>
       </c>
       <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
         <v>53</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>0.95</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
       <c r="I14">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>14</v>
       </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="K14">
+        <v>14</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
+      <c r="C15" t="s">
+        <v>87</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
         <v>52</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>1.27</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>13</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>11</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>12</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>0.92</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
+      <c r="C16" t="s">
+        <v>87</v>
       </c>
       <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
         <v>55</v>
       </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1">
         <v>0.86</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="J16">
-        <v>6</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16" s="1">
         <v>0.83</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
+      <c r="C17" t="s">
+        <v>87</v>
       </c>
       <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>50</v>
       </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.86</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
       <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
         <v>5</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
+      <c r="C18" t="s">
+        <v>87</v>
       </c>
       <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
         <v>51</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>0.92</v>
       </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
       <c r="I18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
+      <c r="C19" t="s">
+        <v>87</v>
       </c>
       <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>54</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>0.88</v>
       </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
+      <c r="C20" t="s">
+        <v>87</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>56</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>0.95</v>
       </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
       <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
         <v>11</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>17</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
+      <c r="C21" t="s">
+        <v>87</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
         <v>59</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>1.06</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>11</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>12</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>0.92</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
+      <c r="C22" t="s">
+        <v>87</v>
       </c>
       <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>60</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>0.79</v>
       </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
       <c r="I22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22">
         <v>7</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>0.86</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
       </c>
       <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
         <v>57</v>
       </c>
-      <c r="F23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1">
         <v>0.78</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>6</v>
-      </c>
-      <c r="K23" s="1">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
+      <c r="C24" t="s">
+        <v>87</v>
       </c>
       <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
         <v>58</v>
       </c>
-      <c r="F24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
         <v>0.84</v>
       </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
       <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
+      <c r="C25" t="s">
+        <v>87</v>
       </c>
       <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
         <v>61</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>0.8</v>
       </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
         <v>63</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>0.71</v>
       </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
       <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
         <v>13</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>19</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>0.68</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27">
         <v>5</v>
       </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
         <v>65</v>
       </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
         <v>0.78</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>8</v>
       </c>
-      <c r="J27">
-        <v>6</v>
-      </c>
-      <c r="K27" s="1">
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27" s="1">
         <v>1.33</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
         <v>62</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>0.72</v>
       </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
       <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
         <v>7</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>14</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
         <v>67</v>
       </c>
-      <c r="F29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1">
         <v>0.84</v>
       </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>4</v>
-      </c>
-      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
         <v>64</v>
       </c>
-      <c r="F30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="1">
         <v>0.78</v>
       </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
       <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
         <v>0</v>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1">
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
+      <c r="C31" t="s">
+        <v>87</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
         <v>66</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>0.76</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="B32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32">
-        <v>6</v>
+      <c r="C32" t="s">
+        <v>87</v>
       </c>
       <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
         <v>5</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>72</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>0.71</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>5</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>12</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>21</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>23</v>
       </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
+      <c r="C33" t="s">
+        <v>87</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
         <v>68</v>
       </c>
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1">
         <v>0.74</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
       <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
         <v>7</v>
       </c>
-      <c r="J33">
-        <v>6</v>
-      </c>
-      <c r="K33" s="1">
+      <c r="K33">
+        <v>6</v>
+      </c>
+      <c r="L33" s="1">
         <v>1.17</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>23</v>
       </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34">
-        <v>6</v>
+      <c r="C34" t="s">
+        <v>87</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
         <v>73</v>
       </c>
-      <c r="F34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="G34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
         <v>0.76</v>
       </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
       <c r="I34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
         <v>5</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="1">
         <v>1.2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>23</v>
       </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35">
-        <v>6</v>
+      <c r="C35" t="s">
+        <v>87</v>
       </c>
       <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
         <v>71</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>0.68</v>
       </c>
-      <c r="H35">
-        <v>6</v>
-      </c>
       <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
         <v>5</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>12</v>
       </c>
-      <c r="K35" s="1">
+      <c r="L35" s="1">
         <v>0.42</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>23</v>
       </c>
-      <c r="B36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36">
-        <v>6</v>
+      <c r="C36" t="s">
+        <v>87</v>
       </c>
       <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>0.65</v>
       </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
       <c r="I36">
         <v>2</v>
       </c>
       <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
         <v>7</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L36" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>23</v>
       </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37">
-        <v>6</v>
+      <c r="C37" t="s">
+        <v>87</v>
       </c>
       <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>0.8</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>5</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>24</v>
       </c>
-      <c r="B38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38">
         <v>7</v>
       </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>0.78</v>
       </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
       <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
         <v>11</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>14</v>
       </c>
-      <c r="K38" s="1">
+      <c r="L38" s="1">
         <v>0.79</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>24</v>
       </c>
-      <c r="B39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39">
         <v>7</v>
       </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>0.67</v>
       </c>
-      <c r="H39">
-        <v>4</v>
-      </c>
       <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
         <v>9</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>19</v>
       </c>
-      <c r="K39" s="1">
+      <c r="L39" s="1">
         <v>0.47</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>24</v>
       </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40">
         <v>7</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
         <v>74</v>
       </c>
-      <c r="F40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1">
         <v>0.67</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
       <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
         <v>5</v>
       </c>
-      <c r="J40">
-        <v>6</v>
-      </c>
-      <c r="K40" s="1">
+      <c r="K40">
+        <v>6</v>
+      </c>
+      <c r="L40" s="1">
         <v>0.83</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>24</v>
       </c>
-      <c r="B41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41">
         <v>7</v>
       </c>
-      <c r="D41">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
       </c>
-      <c r="F41" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="1">
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1">
         <v>0.65</v>
       </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
       <c r="I41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
         <v>5</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>24</v>
       </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42">
         <v>7</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>5</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>78</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>0.71</v>
       </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
         <v>10</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>24</v>
       </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43">
         <v>7</v>
       </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
         <v>76</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>0.65</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>25</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>88</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>8</v>
       </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
         <v>82</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>0.94</v>
       </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
       <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
         <v>12</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>19</v>
       </c>
-      <c r="K44" s="1">
+      <c r="L44" s="1">
         <v>0.63</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>25</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>88</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>8</v>
       </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
         <v>81</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>47</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>0.8</v>
       </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
       <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
         <v>7</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>14</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>25</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>88</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>8</v>
       </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
         <v>83</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>15</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>5</v>
       </c>
-      <c r="J46">
-        <v>6</v>
-      </c>
-      <c r="K46" s="1">
+      <c r="K46">
+        <v>6</v>
+      </c>
+      <c r="L46" s="1">
         <v>0.83</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>25</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>88</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>8</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
         <v>80</v>
       </c>
-      <c r="F47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="1">
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="1">
         <v>0.62</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
       <c r="J47">
-        <v>6</v>
-      </c>
-      <c r="K47" s="1">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>6</v>
+      </c>
+      <c r="L47" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>25</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>88</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>8</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>5</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>84</v>
       </c>
-      <c r="F48" t="s">
-        <v>2</v>
-      </c>
-      <c r="G48" s="1">
+      <c r="G48" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
         <v>0.97</v>
       </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48">
-        <v>3</v>
-      </c>
-      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48" s="1">
         <v>0.33</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>25</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>88</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>8</v>
       </c>
-      <c r="D49">
-        <v>6</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
         <v>85</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>44</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>0.76</v>
       </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>26</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>88</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>9</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>5</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>94</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>47</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>0.47</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>0</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>10</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>14</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="1">
         <v>0.71</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>26</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>88</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>9</v>
       </c>
-      <c r="D51">
-        <v>6</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>0.6</v>
       </c>
-      <c r="H51">
-        <v>2</v>
-      </c>
       <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
         <v>9</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>7</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="1">
         <v>1.29</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>26</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>88</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>9</v>
       </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
         <v>91</v>
       </c>
-      <c r="F52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="1">
+      <c r="G52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="1">
         <v>0.5</v>
       </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
       <c r="I52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>4</v>
       </c>
-      <c r="K52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>26</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>88</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>9</v>
       </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
         <v>92</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>0.53</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>7</v>
       </c>
-      <c r="I53">
-        <v>4</v>
-      </c>
       <c r="J53">
+        <v>4</v>
+      </c>
+      <c r="K53">
         <v>11</v>
       </c>
-      <c r="K53" s="1">
+      <c r="L53" s="1">
         <v>0.36</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
         <v>26</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>88</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>9</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
         <v>90</v>
       </c>
-      <c r="F54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="1">
+      <c r="G54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="1">
         <v>0.54</v>
       </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54">
-        <v>6</v>
-      </c>
-      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>6</v>
+      </c>
+      <c r="L54" s="1">
         <v>0.17</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>26</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>88</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>9</v>
       </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
         <v>93</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>0.75</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
         <v>27</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>88</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>10</v>
       </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
         <v>97</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>0.48</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>10</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>17</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>12</v>
       </c>
-      <c r="K56" s="1">
+      <c r="L56" s="1">
         <v>1.42</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>27</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>88</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>10</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>5</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>100</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>47</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>0.41</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>4</v>
-      </c>
       <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57">
         <v>14</v>
       </c>
-      <c r="K57" s="1">
+      <c r="L57" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
         <v>27</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>88</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>10</v>
       </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
         <v>98</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>7</v>
       </c>
-      <c r="I58">
-        <v>3</v>
-      </c>
       <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
         <v>7</v>
       </c>
-      <c r="K58" s="1">
+      <c r="L58" s="1">
         <v>0.43</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>27</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>88</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>10</v>
       </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
         <v>99</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>0.49</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>0</v>
       </c>
-      <c r="I59">
-        <v>2</v>
-      </c>
       <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
         <v>7</v>
       </c>
-      <c r="K59" s="1">
+      <c r="L59" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>27</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>88</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>10</v>
       </c>
-      <c r="D60">
-        <v>6</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
         <v>101</v>
       </c>
-      <c r="F60" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="1">
+      <c r="G60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="1">
         <v>0.43</v>
       </c>
-      <c r="H60">
-        <v>2</v>
-      </c>
       <c r="I60">
         <v>2</v>
       </c>
       <c r="J60">
-        <v>6</v>
-      </c>
-      <c r="K60" s="1">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>6</v>
+      </c>
+      <c r="L60" s="1">
         <v>0.33</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>27</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>88</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>10</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
         <v>96</v>
       </c>
-      <c r="F61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="1">
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="1">
         <v>0.48</v>
       </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>28</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>89</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>11</v>
       </c>
-      <c r="D62">
-        <v>3</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
         <v>104</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <v>0.63</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>0</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>11</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>19</v>
       </c>
-      <c r="K62" s="1">
+      <c r="L62" s="1">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>28</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>89</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>11</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
         <v>102</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
         <v>0.63</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>12</v>
       </c>
-      <c r="I63">
-        <v>6</v>
-      </c>
       <c r="J63">
+        <v>6</v>
+      </c>
+      <c r="K63">
         <v>12</v>
       </c>
-      <c r="K63" s="1">
+      <c r="L63" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>28</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>89</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>11</v>
       </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
         <v>103</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <v>0.69</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>7</v>
       </c>
-      <c r="I64">
-        <v>3</v>
-      </c>
       <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
         <v>7</v>
       </c>
-      <c r="K64" s="1">
+      <c r="L64" s="1">
         <v>0.43</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>28</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>89</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>11</v>
       </c>
-      <c r="D65">
-        <v>4</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
         <v>105</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>44</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <v>0.65</v>
       </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>29</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>89</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>12</v>
       </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66" t="s">
         <v>108</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="1">
+      <c r="H66" s="1">
         <v>0.6</v>
       </c>
-      <c r="H66">
-        <v>6</v>
-      </c>
       <c r="I66">
+        <v>6</v>
+      </c>
+      <c r="J66">
         <v>7</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>14</v>
       </c>
-      <c r="K66" s="1">
+      <c r="L66" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>29</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>89</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>12</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
         <v>106</v>
       </c>
-      <c r="F67" t="s">
-        <v>4</v>
-      </c>
-      <c r="G67" s="1">
+      <c r="G67" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" s="1">
         <v>0.6</v>
       </c>
-      <c r="H67">
-        <v>3</v>
-      </c>
       <c r="I67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67">
-        <v>6</v>
-      </c>
-      <c r="K67" s="1">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>6</v>
+      </c>
+      <c r="L67" s="1">
         <v>0.33</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>29</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>89</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>12</v>
       </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
         <v>107</v>
       </c>
-      <c r="F68" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="1">
+      <c r="G68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="1">
         <v>0.63</v>
       </c>
-      <c r="H68">
-        <v>6</v>
-      </c>
       <c r="I68">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J68">
-        <v>6</v>
-      </c>
-      <c r="K68" s="1">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>6</v>
+      </c>
+      <c r="L68" s="1">
         <v>0.33</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>29</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>89</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>12</v>
       </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
         <v>109</v>
       </c>
-      <c r="F69" t="s">
-        <v>2</v>
-      </c>
-      <c r="G69" s="1">
+      <c r="G69" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="1">
         <v>0.62</v>
       </c>
-      <c r="H69">
-        <v>6</v>
-      </c>
       <c r="I69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
         <v>5</v>
       </c>
-      <c r="K69" s="1">
+      <c r="L69" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>30</v>
       </c>
-      <c r="B70" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70">
+      <c r="C70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70">
         <v>13</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
         <v>110</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>111</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <v>1.26</v>
       </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
       <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
         <v>11</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>12</v>
       </c>
-      <c r="K70" s="1">
+      <c r="L70" s="1">
         <v>0.92</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
         <v>30</v>
       </c>
-      <c r="B71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71">
+      <c r="C71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71">
         <v>13</v>
       </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
         <v>114</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>115</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
       <c r="I71">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J71">
         <v>11</v>
       </c>
-      <c r="K71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="K71">
+        <v>11</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>30</v>
       </c>
-      <c r="B72" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72">
+      <c r="C72" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72">
         <v>13</v>
       </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
         <v>112</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>113</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <v>1.37</v>
       </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
       <c r="I72">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>6</v>
       </c>
-      <c r="K72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="K72">
+        <v>6</v>
+      </c>
+      <c r="L72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>30</v>
       </c>
-      <c r="B73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73">
+      <c r="C73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73">
         <v>13</v>
       </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
         <v>116</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>117</v>
       </c>
-      <c r="G73" s="1">
+      <c r="H73" s="1">
         <v>1.37</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>15</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>5</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>7</v>
       </c>
-      <c r="K73" s="1">
+      <c r="L73" s="1">
         <v>0.71</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
         <v>30</v>
       </c>
-      <c r="B74" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74">
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74">
         <v>13</v>
       </c>
-      <c r="D74">
-        <v>6</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74" t="s">
         <v>120</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>121</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
         <v>0.41</v>
       </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
       <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
         <v>0</v>
       </c>
-      <c r="J74">
-        <v>6</v>
-      </c>
-      <c r="K74" s="1">
+      <c r="K74">
+        <v>6</v>
+      </c>
+      <c r="L74" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>30</v>
       </c>
-      <c r="B75" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75">
+      <c r="C75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75">
         <v>13</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>5</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>118</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>119</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <v>1.38</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>31</v>
       </c>
-      <c r="B76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C76">
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76">
         <v>14</v>
       </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
         <v>125</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>115</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
         <v>1.25</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>8</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>14</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>11</v>
       </c>
-      <c r="K76" s="1">
+      <c r="L76" s="1">
         <v>1.27</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>31</v>
       </c>
-      <c r="B77" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77">
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77">
         <v>14</v>
       </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
         <v>124</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>117</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <v>0.92</v>
-      </c>
-      <c r="H77">
-        <v>10</v>
       </c>
       <c r="I77">
         <v>10</v>
       </c>
       <c r="J77">
+        <v>10</v>
+      </c>
+      <c r="K77">
         <v>7</v>
       </c>
-      <c r="K77" s="1">
+      <c r="L77" s="1">
         <v>1.43</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>31</v>
       </c>
-      <c r="B78" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78">
+      <c r="C78" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78">
         <v>14</v>
       </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
         <v>123</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>111</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <v>0.99</v>
       </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
       <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
         <v>7</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>12</v>
       </c>
-      <c r="K78" s="1">
+      <c r="L78" s="1">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>31</v>
       </c>
-      <c r="B79" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79">
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79">
         <v>14</v>
       </c>
-      <c r="D79">
-        <v>6</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
         <v>128</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>113</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>6</v>
-      </c>
-      <c r="K79" s="1">
+        <v>4</v>
+      </c>
+      <c r="K79">
+        <v>6</v>
+      </c>
+      <c r="L79" s="1">
         <v>0.67</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>31</v>
       </c>
-      <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80">
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80">
         <v>14</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>5</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>126</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>127</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H80" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
         <v>7</v>
       </c>
-      <c r="K80" s="1">
+      <c r="L80" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>31</v>
       </c>
-      <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81">
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81">
         <v>14</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
         <v>122</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>119</v>
       </c>
-      <c r="G81" s="1">
+      <c r="H81" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>32</v>
       </c>
-      <c r="B82" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82">
+      <c r="C82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82">
         <v>15</v>
       </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
         <v>130</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>115</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H82" s="1">
         <v>1.06</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>8</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>10</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>11</v>
       </c>
-      <c r="K82" s="1">
+      <c r="L82" s="1">
         <v>0.91</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>32</v>
       </c>
-      <c r="B83" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83">
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83">
         <v>15</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
         <v>129</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>121</v>
       </c>
-      <c r="G83" s="1">
+      <c r="H83" s="1">
         <v>0.91</v>
       </c>
-      <c r="H83">
-        <v>3</v>
-      </c>
       <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83">
         <v>5</v>
       </c>
-      <c r="J83">
-        <v>6</v>
-      </c>
-      <c r="K83" s="1">
+      <c r="K83">
+        <v>6</v>
+      </c>
+      <c r="L83" s="1">
         <v>0.83</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>32</v>
       </c>
-      <c r="B84" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84">
+      <c r="C84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84">
         <v>15</v>
       </c>
-      <c r="D84">
-        <v>3</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84" t="s">
         <v>131</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>113</v>
       </c>
-      <c r="G84" s="1">
+      <c r="H84" s="1">
         <v>1.05</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>5</v>
       </c>
-      <c r="I84">
-        <v>4</v>
-      </c>
       <c r="J84">
-        <v>6</v>
-      </c>
-      <c r="K84" s="1">
+        <v>4</v>
+      </c>
+      <c r="K84">
+        <v>6</v>
+      </c>
+      <c r="L84" s="1">
         <v>0.67</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
         <v>32</v>
       </c>
-      <c r="B85" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85">
+      <c r="C85" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85">
         <v>15</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>5</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>133</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>127</v>
       </c>
-      <c r="G85" s="1">
+      <c r="H85" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>5</v>
       </c>
-      <c r="I85">
-        <v>4</v>
-      </c>
       <c r="J85">
+        <v>4</v>
+      </c>
+      <c r="K85">
         <v>7</v>
       </c>
-      <c r="K85" s="1">
+      <c r="L85" s="1">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
         <v>32</v>
       </c>
-      <c r="B86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86">
+      <c r="C86" t="s">
+        <v>87</v>
+      </c>
+      <c r="D86">
         <v>15</v>
       </c>
-      <c r="D86">
-        <v>6</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="E86">
+        <v>6</v>
+      </c>
+      <c r="F86" t="s">
         <v>134</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>117</v>
       </c>
-      <c r="G86" s="1">
+      <c r="H86" s="1">
         <v>0.54</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>2</v>
-      </c>
       <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
         <v>7</v>
       </c>
-      <c r="K86" s="1">
+      <c r="L86" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
         <v>32</v>
       </c>
-      <c r="B87" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87">
+      <c r="C87" t="s">
+        <v>87</v>
+      </c>
+      <c r="D87">
         <v>15</v>
       </c>
-      <c r="D87">
-        <v>4</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
         <v>132</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>119</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
         <v>0.9</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
         <v>33</v>
       </c>
-      <c r="B88" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88">
+      <c r="C88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88">
         <v>16</v>
       </c>
-      <c r="D88">
-        <v>6</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
         <v>141</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>115</v>
       </c>
-      <c r="G88" s="1">
-        <v>1</v>
-      </c>
-      <c r="H88">
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+      <c r="I88">
         <v>9</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>8</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>11</v>
       </c>
-      <c r="K88" s="1">
+      <c r="L88" s="1">
         <v>0.73</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
         <v>33</v>
       </c>
-      <c r="B89" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89">
+      <c r="C89" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89">
         <v>16</v>
       </c>
-      <c r="D89">
-        <v>4</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
         <v>138</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>139</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
         <v>0.88</v>
       </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
       <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
         <v>7</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>15</v>
       </c>
-      <c r="K89" s="1">
+      <c r="L89" s="1">
         <v>0.47</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
         <v>33</v>
       </c>
-      <c r="B90" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90">
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90">
         <v>16</v>
       </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
         <v>135</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>111</v>
       </c>
-      <c r="G90" s="1">
+      <c r="H90" s="1">
         <v>0.89</v>
       </c>
-      <c r="H90">
-        <v>2</v>
-      </c>
       <c r="I90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J90">
+        <v>6</v>
+      </c>
+      <c r="K90">
         <v>12</v>
       </c>
-      <c r="K90" s="1">
+      <c r="L90" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>33</v>
       </c>
-      <c r="B91" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91">
+      <c r="C91" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91">
         <v>16</v>
       </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91" t="s">
         <v>137</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>117</v>
       </c>
-      <c r="G91" s="1">
+      <c r="H91" s="1">
         <v>0.8</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>7</v>
       </c>
-      <c r="I91">
-        <v>4</v>
-      </c>
       <c r="J91">
         <v>4</v>
       </c>
-      <c r="K91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="K91">
+        <v>4</v>
+      </c>
+      <c r="L91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>33</v>
       </c>
-      <c r="B92" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92">
+      <c r="C92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92">
         <v>16</v>
       </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
         <v>136</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>121</v>
       </c>
-      <c r="G92" s="1">
+      <c r="H92" s="1">
         <v>0.89</v>
       </c>
-      <c r="H92">
-        <v>2</v>
-      </c>
       <c r="I92">
         <v>2</v>
       </c>
       <c r="J92">
-        <v>6</v>
-      </c>
-      <c r="K92" s="1">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>6</v>
+      </c>
+      <c r="L92" s="1">
         <v>0.33</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
         <v>33</v>
       </c>
-      <c r="B93" t="s">
-        <v>87</v>
-      </c>
-      <c r="C93">
+      <c r="C93" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93">
         <v>16</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>5</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>140</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>119</v>
       </c>
-      <c r="G93" s="1">
+      <c r="H93" s="1">
         <v>0.81</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
         <v>34</v>
       </c>
-      <c r="B94" t="s">
-        <v>87</v>
-      </c>
-      <c r="C94">
+      <c r="C94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94">
         <v>17</v>
       </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
         <v>142</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>139</v>
       </c>
-      <c r="G94" s="1">
+      <c r="H94" s="1">
         <v>0.88</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>8</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>12</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>15</v>
       </c>
-      <c r="K94" s="1">
+      <c r="L94" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
         <v>34</v>
       </c>
-      <c r="B95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C95">
+      <c r="C95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D95">
         <v>17</v>
       </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
         <v>145</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>127</v>
       </c>
-      <c r="G95" s="1">
+      <c r="H95" s="1">
         <v>0.79</v>
       </c>
-      <c r="H95">
-        <v>6</v>
-      </c>
       <c r="I95">
         <v>6</v>
       </c>
       <c r="J95">
+        <v>6</v>
+      </c>
+      <c r="K95">
         <v>7</v>
       </c>
-      <c r="K95" s="1">
+      <c r="L95" s="1">
         <v>0.86</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
         <v>34</v>
       </c>
-      <c r="B96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C96">
+      <c r="C96" t="s">
+        <v>87</v>
+      </c>
+      <c r="D96">
         <v>17</v>
       </c>
-      <c r="D96">
-        <v>3</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
         <v>144</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>113</v>
       </c>
-      <c r="G96" s="1">
+      <c r="H96" s="1">
         <v>0.78</v>
       </c>
-      <c r="H96">
-        <v>3</v>
-      </c>
       <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96">
         <v>5</v>
       </c>
-      <c r="J96">
-        <v>6</v>
-      </c>
-      <c r="K96" s="1">
+      <c r="K96">
+        <v>6</v>
+      </c>
+      <c r="L96" s="1">
         <v>0.83</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
         <v>34</v>
       </c>
-      <c r="B97" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97">
+      <c r="C97" t="s">
+        <v>87</v>
+      </c>
+      <c r="D97">
         <v>17</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>5</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>146</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>111</v>
       </c>
-      <c r="G97" s="1">
+      <c r="H97" s="1">
         <v>0.86</v>
       </c>
-      <c r="H97">
-        <v>2</v>
-      </c>
       <c r="I97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97">
+        <v>4</v>
+      </c>
+      <c r="K97">
         <v>11</v>
       </c>
-      <c r="K97" s="1">
+      <c r="L97" s="1">
         <v>0.36</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
         <v>34</v>
       </c>
-      <c r="B98" t="s">
-        <v>87</v>
-      </c>
-      <c r="C98">
+      <c r="C98" t="s">
+        <v>87</v>
+      </c>
+      <c r="D98">
         <v>17</v>
       </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
         <v>143</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>121</v>
       </c>
-      <c r="G98" s="1">
+      <c r="H98" s="1">
         <v>0.88</v>
       </c>
-      <c r="H98">
-        <v>2</v>
-      </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98">
-        <v>6</v>
-      </c>
-      <c r="K98" s="1">
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <v>6</v>
+      </c>
+      <c r="L98" s="1">
         <v>0.33</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
         <v>34</v>
       </c>
-      <c r="B99" t="s">
-        <v>87</v>
-      </c>
-      <c r="C99">
+      <c r="C99" t="s">
+        <v>87</v>
+      </c>
+      <c r="D99">
         <v>17</v>
       </c>
-      <c r="D99">
-        <v>6</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="E99">
+        <v>6</v>
+      </c>
+      <c r="F99" t="s">
         <v>147</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>111</v>
       </c>
-      <c r="G99" s="1">
+      <c r="H99" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
       <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
         <v>12</v>
       </c>
-      <c r="K99" s="1">
+      <c r="L99" s="1">
         <v>0.08</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
         <v>35</v>
       </c>
-      <c r="B100" t="s">
-        <v>87</v>
-      </c>
-      <c r="C100">
+      <c r="C100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D100">
         <v>18</v>
       </c>
-      <c r="D100">
-        <v>3</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
         <v>150</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>127</v>
       </c>
-      <c r="G100" s="1">
+      <c r="H100" s="1">
         <v>0.69</v>
       </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
       <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
         <v>9</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>7</v>
       </c>
-      <c r="K100" s="1">
+      <c r="L100" s="1">
         <v>1.29</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
         <v>35</v>
       </c>
-      <c r="B101" t="s">
-        <v>87</v>
-      </c>
-      <c r="C101">
+      <c r="C101" t="s">
+        <v>87</v>
+      </c>
+      <c r="D101">
         <v>18</v>
       </c>
-      <c r="D101">
-        <v>4</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
         <v>151</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>111</v>
       </c>
-      <c r="G101" s="1">
+      <c r="H101" s="1">
         <v>0.68</v>
       </c>
-      <c r="H101">
-        <v>3</v>
-      </c>
       <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101">
         <v>7</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>12</v>
       </c>
-      <c r="K101" s="1">
+      <c r="L101" s="1">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
         <v>35</v>
       </c>
-      <c r="B102" t="s">
-        <v>87</v>
-      </c>
-      <c r="C102">
+      <c r="C102" t="s">
+        <v>87</v>
+      </c>
+      <c r="D102">
         <v>18</v>
       </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
         <v>148</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>117</v>
       </c>
-      <c r="G102" s="1">
+      <c r="H102" s="1">
         <v>0.78</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>14</v>
       </c>
-      <c r="I102">
-        <v>6</v>
-      </c>
       <c r="J102">
+        <v>6</v>
+      </c>
+      <c r="K102">
         <v>7</v>
       </c>
-      <c r="K102" s="1">
+      <c r="L102" s="1">
         <v>0.86</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
         <v>35</v>
       </c>
-      <c r="B103" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103">
+      <c r="C103" t="s">
+        <v>87</v>
+      </c>
+      <c r="D103">
         <v>18</v>
       </c>
-      <c r="D103">
-        <v>2</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s">
         <v>149</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>113</v>
       </c>
-      <c r="G103" s="1">
+      <c r="H103" s="1">
         <v>0.78</v>
       </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
       <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
         <v>5</v>
       </c>
-      <c r="J103">
-        <v>6</v>
-      </c>
-      <c r="K103" s="1">
+      <c r="K103">
+        <v>6</v>
+      </c>
+      <c r="L103" s="1">
         <v>0.83</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
         <v>35</v>
       </c>
-      <c r="B104" t="s">
-        <v>87</v>
-      </c>
-      <c r="C104">
+      <c r="C104" t="s">
+        <v>87</v>
+      </c>
+      <c r="D104">
         <v>18</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>5</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>152</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>127</v>
       </c>
-      <c r="G104" s="1">
+      <c r="H104" s="1">
         <v>0.78</v>
       </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
         <v>7</v>
       </c>
-      <c r="K104" s="1">
+      <c r="L104" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
         <v>35</v>
       </c>
-      <c r="B105" t="s">
-        <v>87</v>
-      </c>
-      <c r="C105">
+      <c r="C105" t="s">
+        <v>87</v>
+      </c>
+      <c r="D105">
         <v>18</v>
       </c>
-      <c r="D105">
-        <v>6</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="E105">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
         <v>153</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>121</v>
       </c>
-      <c r="G105" s="1">
+      <c r="H105" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105">
-        <v>6</v>
-      </c>
-      <c r="K105" s="1">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>6</v>
+      </c>
+      <c r="L105" s="1">
         <v>0.17</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
         <v>36</v>
       </c>
-      <c r="B106" t="s">
-        <v>87</v>
-      </c>
-      <c r="C106">
+      <c r="C106" t="s">
+        <v>87</v>
+      </c>
+      <c r="D106">
         <v>19</v>
       </c>
-      <c r="D106">
-        <v>3</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106" t="s">
         <v>156</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>117</v>
       </c>
-      <c r="G106" s="1">
+      <c r="H106" s="1">
         <v>0.6</v>
       </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
       <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
         <v>8</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>7</v>
       </c>
-      <c r="K106" s="1">
+      <c r="L106" s="1">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
         <v>36</v>
       </c>
-      <c r="B107" t="s">
-        <v>87</v>
-      </c>
-      <c r="C107">
+      <c r="C107" t="s">
+        <v>87</v>
+      </c>
+      <c r="D107">
         <v>19</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>5</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>158</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>117</v>
       </c>
-      <c r="G107" s="1">
+      <c r="H107" s="1">
         <v>0.7</v>
       </c>
-      <c r="H107">
-        <v>3</v>
-      </c>
       <c r="I107">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J107">
+        <v>6</v>
+      </c>
+      <c r="K107">
         <v>7</v>
       </c>
-      <c r="K107" s="1">
+      <c r="L107" s="1">
         <v>0.86</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
         <v>36</v>
       </c>
-      <c r="B108" t="s">
-        <v>87</v>
-      </c>
-      <c r="C108">
+      <c r="C108" t="s">
+        <v>87</v>
+      </c>
+      <c r="D108">
         <v>19</v>
       </c>
-      <c r="D108">
-        <v>4</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
         <v>157</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>127</v>
       </c>
-      <c r="G108" s="1">
+      <c r="H108" s="1">
         <v>0.74</v>
       </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
       <c r="I108">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J108">
+        <v>4</v>
+      </c>
+      <c r="K108">
         <v>7</v>
       </c>
-      <c r="K108" s="1">
+      <c r="L108" s="1">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
         <v>36</v>
       </c>
-      <c r="B109" t="s">
-        <v>87</v>
-      </c>
-      <c r="C109">
+      <c r="C109" t="s">
+        <v>87</v>
+      </c>
+      <c r="D109">
         <v>19</v>
       </c>
-      <c r="D109">
-        <v>6</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="E109">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
         <v>159</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>115</v>
       </c>
-      <c r="G109" s="1">
+      <c r="H109" s="1">
         <v>0.54</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>0</v>
       </c>
-      <c r="I109">
-        <v>3</v>
-      </c>
       <c r="J109">
+        <v>3</v>
+      </c>
+      <c r="K109">
         <v>11</v>
       </c>
-      <c r="K109" s="1">
+      <c r="L109" s="1">
         <v>0.27</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
         <v>36</v>
       </c>
-      <c r="B110" t="s">
-        <v>87</v>
-      </c>
-      <c r="C110">
+      <c r="C110" t="s">
+        <v>87</v>
+      </c>
+      <c r="D110">
         <v>19</v>
       </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
         <v>155</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>117</v>
       </c>
-      <c r="G110" s="1">
+      <c r="H110" s="1">
         <v>0.75</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>16</v>
       </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
       <c r="J110">
-        <v>3</v>
-      </c>
-      <c r="K110" s="1">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>3</v>
+      </c>
+      <c r="L110" s="1">
         <v>0.33</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
         <v>36</v>
       </c>
-      <c r="B111" t="s">
-        <v>87</v>
-      </c>
-      <c r="C111">
+      <c r="C111" t="s">
+        <v>87</v>
+      </c>
+      <c r="D111">
         <v>19</v>
       </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
         <v>154</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>119</v>
       </c>
-      <c r="G111" s="1">
+      <c r="H111" s="1">
         <v>0.63</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
         <v>37</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>88</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>20</v>
       </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
         <v>160</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>139</v>
       </c>
-      <c r="G112" s="1">
+      <c r="H112" s="1">
         <v>0.73</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>7</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>9</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>15</v>
       </c>
-      <c r="K112" s="1">
+      <c r="L112" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
         <v>37</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>88</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>20</v>
       </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s">
         <v>161</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>127</v>
       </c>
-      <c r="G113" s="1">
+      <c r="H113" s="1">
         <v>0.88</v>
       </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
       <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
         <v>8</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>7</v>
       </c>
-      <c r="K113" s="1">
+      <c r="L113" s="1">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
         <v>37</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>88</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>20</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>5</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>164</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>117</v>
       </c>
-      <c r="G114" s="1">
+      <c r="H114" s="1">
         <v>0.77</v>
-      </c>
-      <c r="H114">
-        <v>5</v>
       </c>
       <c r="I114">
         <v>5</v>
       </c>
       <c r="J114">
+        <v>5</v>
+      </c>
+      <c r="K114">
         <v>7</v>
       </c>
-      <c r="K114" s="1">
+      <c r="L114" s="1">
         <v>0.71</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
         <v>37</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>88</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>20</v>
       </c>
-      <c r="D115">
-        <v>3</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115" t="s">
         <v>162</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>111</v>
       </c>
-      <c r="G115" s="1">
+      <c r="H115" s="1">
         <v>0.9</v>
       </c>
-      <c r="H115">
-        <v>4</v>
-      </c>
       <c r="I115">
         <v>4</v>
       </c>
       <c r="J115">
+        <v>4</v>
+      </c>
+      <c r="K115">
         <v>12</v>
       </c>
-      <c r="K115" s="1">
+      <c r="L115" s="1">
         <v>0.33</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
         <v>37</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>88</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>20</v>
       </c>
-      <c r="D116">
-        <v>4</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116" t="s">
         <v>163</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>117</v>
       </c>
-      <c r="G116" s="1">
+      <c r="H116" s="1">
         <v>0.67</v>
       </c>
-      <c r="H116">
-        <v>3</v>
-      </c>
       <c r="I116">
+        <v>3</v>
+      </c>
+      <c r="J116">
         <v>0</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>7</v>
       </c>
-      <c r="K116" s="1">
+      <c r="L116" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
         <v>37</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>88</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>20</v>
       </c>
-      <c r="D117">
-        <v>6</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="E117">
+        <v>6</v>
+      </c>
+      <c r="F117" t="s">
         <v>165</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>119</v>
       </c>
-      <c r="G117" s="1">
+      <c r="H117" s="1">
         <v>0.92</v>
       </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
         <v>38</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>88</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>21</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>5</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>170</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>115</v>
       </c>
-      <c r="G118" s="1">
+      <c r="H118" s="1">
         <v>0.64</v>
-      </c>
-      <c r="H118">
-        <v>12</v>
       </c>
       <c r="I118">
         <v>12</v>
       </c>
       <c r="J118">
+        <v>12</v>
+      </c>
+      <c r="K118">
         <v>11</v>
       </c>
-      <c r="K118" s="1">
+      <c r="L118" s="1">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
         <v>38</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>88</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>21</v>
       </c>
-      <c r="D119">
-        <v>3</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119" t="s">
         <v>168</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>113</v>
       </c>
-      <c r="G119" s="1">
+      <c r="H119" s="1">
         <v>0.64</v>
       </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
       <c r="I119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J119">
+        <v>3</v>
+      </c>
+      <c r="K119">
         <v>5</v>
       </c>
-      <c r="K119" s="1">
+      <c r="L119" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
         <v>38</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>88</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>21</v>
       </c>
-      <c r="D120">
-        <v>6</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="E120">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
         <v>171</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>111</v>
       </c>
-      <c r="G120" s="1">
+      <c r="H120" s="1">
         <v>0.4</v>
       </c>
-      <c r="H120">
-        <v>3</v>
-      </c>
       <c r="I120">
         <v>3</v>
       </c>
       <c r="J120">
+        <v>3</v>
+      </c>
+      <c r="K120">
         <v>12</v>
       </c>
-      <c r="K120" s="1">
+      <c r="L120" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
         <v>38</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>88</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>21</v>
       </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
         <v>166</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>121</v>
       </c>
-      <c r="G121" s="1">
+      <c r="H121" s="1">
         <v>0.63</v>
       </c>
-      <c r="H121">
-        <v>2</v>
-      </c>
       <c r="I121">
         <v>2</v>
       </c>
       <c r="J121">
-        <v>6</v>
-      </c>
-      <c r="K121" s="1">
+        <v>2</v>
+      </c>
+      <c r="K121">
+        <v>6</v>
+      </c>
+      <c r="L121" s="1">
         <v>0.33</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
         <v>38</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>88</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>21</v>
       </c>
-      <c r="D122">
-        <v>4</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="E122">
+        <v>4</v>
+      </c>
+      <c r="F122" t="s">
         <v>169</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>127</v>
       </c>
-      <c r="G122" s="1">
+      <c r="H122" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
         <v>7</v>
       </c>
-      <c r="K122" s="1">
+      <c r="L122" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
         <v>38</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>88</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>21</v>
       </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
         <v>167</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>119</v>
       </c>
-      <c r="G123" s="1">
+      <c r="H123" s="1">
         <v>0.54</v>
       </c>
-      <c r="H123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="L123" s="1"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
         <v>39</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>88</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>22</v>
       </c>
-      <c r="D124">
-        <v>4</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124" t="s">
         <v>175</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>117</v>
       </c>
-      <c r="G124" s="1">
+      <c r="H124" s="1">
         <v>0.52</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>9</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>8</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>7</v>
       </c>
-      <c r="K124" s="1">
+      <c r="L124" s="1">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
         <v>39</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>88</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>22</v>
       </c>
-      <c r="D125">
-        <v>6</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="E125">
+        <v>6</v>
+      </c>
+      <c r="F125" t="s">
         <v>177</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>139</v>
       </c>
-      <c r="G125" s="1">
+      <c r="H125" s="1">
         <v>0.37</v>
       </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
       <c r="I125">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J125">
+        <v>6</v>
+      </c>
+      <c r="K125">
         <v>15</v>
       </c>
-      <c r="K125" s="1">
+      <c r="L125" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
         <v>39</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>88</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>22</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>5</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>176</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>139</v>
       </c>
-      <c r="G126" s="1">
+      <c r="H126" s="1">
         <v>0.48</v>
       </c>
-      <c r="H126">
-        <v>3</v>
-      </c>
       <c r="I126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J126">
+        <v>4</v>
+      </c>
+      <c r="K126">
         <v>15</v>
       </c>
-      <c r="K126" s="1">
+      <c r="L126" s="1">
         <v>0.27</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
         <v>39</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>88</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>22</v>
       </c>
-      <c r="D127">
-        <v>2</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s">
         <v>173</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>139</v>
       </c>
-      <c r="G127" s="1">
+      <c r="H127" s="1">
         <v>0.53</v>
       </c>
-      <c r="H127">
-        <v>3</v>
-      </c>
       <c r="I127">
         <v>3</v>
       </c>
       <c r="J127">
+        <v>3</v>
+      </c>
+      <c r="K127">
         <v>15</v>
       </c>
-      <c r="K127" s="1">
+      <c r="L127" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
         <v>39</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>88</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>22</v>
       </c>
-      <c r="D128">
-        <v>3</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="F128" t="s">
         <v>174</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>115</v>
       </c>
-      <c r="G128" s="1">
+      <c r="H128" s="1">
         <v>0.6</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>5</v>
       </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
       <c r="J128">
-        <v>2</v>
-      </c>
-      <c r="K128" s="1">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
         <v>39</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>88</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>22</v>
       </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
         <v>172</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>119</v>
       </c>
-      <c r="G129" s="1">
+      <c r="H129" s="1">
         <v>0.51</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
         <v>40</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>89</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>23</v>
       </c>
-      <c r="D130">
-        <v>2</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130" t="s">
         <v>179</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>139</v>
       </c>
-      <c r="G130" s="1">
+      <c r="H130" s="1">
         <v>0.74</v>
       </c>
-      <c r="H130">
-        <v>4</v>
-      </c>
       <c r="I130">
+        <v>4</v>
+      </c>
+      <c r="J130">
         <v>8</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>15</v>
       </c>
-      <c r="K130" s="1">
+      <c r="L130" s="1">
         <v>0.53</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
         <v>40</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>89</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>23</v>
       </c>
-      <c r="D131">
-        <v>4</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131" t="s">
         <v>181</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>115</v>
       </c>
-      <c r="G131" s="1">
+      <c r="H131" s="1">
         <v>0.67</v>
       </c>
-      <c r="H131">
-        <v>2</v>
-      </c>
       <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131">
         <v>5</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>11</v>
       </c>
-      <c r="K131" s="1">
+      <c r="L131" s="1">
         <v>0.45</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
         <v>40</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>89</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>23</v>
       </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
         <v>178</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>117</v>
       </c>
-      <c r="G132" s="1">
+      <c r="H132" s="1">
         <v>0.88</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>15</v>
       </c>
-      <c r="I132">
-        <v>3</v>
-      </c>
       <c r="J132">
+        <v>3</v>
+      </c>
+      <c r="K132">
         <v>7</v>
       </c>
-      <c r="K132" s="1">
+      <c r="L132" s="1">
         <v>0.43</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
         <v>40</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>89</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>23</v>
       </c>
-      <c r="D133">
-        <v>3</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133" t="s">
         <v>180</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>127</v>
       </c>
-      <c r="G133" s="1">
+      <c r="H133" s="1">
         <v>0.63</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>0</v>
       </c>
-      <c r="I133">
-        <v>3</v>
-      </c>
       <c r="J133">
+        <v>3</v>
+      </c>
+      <c r="K133">
         <v>7</v>
       </c>
-      <c r="K133" s="1">
+      <c r="L133" s="1">
         <v>0.43</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
         <v>41</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>89</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>24</v>
       </c>
-      <c r="D134">
-        <v>2</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
         <v>183</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>111</v>
       </c>
-      <c r="G134" s="1">
+      <c r="H134" s="1">
         <v>0.68</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>13</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>7</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>12</v>
       </c>
-      <c r="K134" s="1">
+      <c r="L134" s="1">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
         <v>41</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>89</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>24</v>
       </c>
-      <c r="D135">
-        <v>3</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135" t="s">
         <v>184</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>121</v>
       </c>
-      <c r="G135" s="1">
+      <c r="H135" s="1">
         <v>0.61</v>
       </c>
-      <c r="H135">
-        <v>3</v>
-      </c>
       <c r="I135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135">
-        <v>6</v>
-      </c>
-      <c r="K135" s="1">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>6</v>
+      </c>
+      <c r="L135" s="1">
         <v>0.33</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
         <v>41</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>89</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>24</v>
       </c>
-      <c r="D136">
-        <v>4</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
         <v>185</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>113</v>
       </c>
-      <c r="G136" s="1">
+      <c r="H136" s="1">
         <v>0.62</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>5</v>
       </c>
-      <c r="I136">
-        <v>2</v>
-      </c>
       <c r="J136">
-        <v>6</v>
-      </c>
-      <c r="K136" s="1">
+        <v>2</v>
+      </c>
+      <c r="K136">
+        <v>6</v>
+      </c>
+      <c r="L136" s="1">
         <v>0.33</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
         <v>41</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>89</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>24</v>
       </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
         <v>182</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>119</v>
       </c>
-      <c r="G137" s="1">
+      <c r="H137" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>0</v>
       </c>
+      <c r="L137" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
